--- a/ppt/futures.xlsx
+++ b/ppt/futures.xlsx
@@ -1,57 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oak/cloud/ppt/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="960" windowWidth="32780" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="32040" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>number</t>
+  </si>
   <si>
     <t>面值</t>
   </si>
   <si>
-    <t>number</t>
+    <t>开仓btc价格</t>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
-    <t>开仓btc价格</t>
-  </si>
-  <si>
     <t>当前价格</t>
-  </si>
-  <si>
-    <t>现货收益</t>
   </si>
   <si>
     <t>合约收益 btc</t>
   </si>
   <si>
     <t>合约收益 usd</t>
+  </si>
+  <si>
+    <t>现货收益</t>
   </si>
   <si>
     <t>任意时间可以用卖出2个btc的usd，去平仓</t>
@@ -66,13 +54,22 @@
     <t>开仓价</t>
   </si>
   <si>
-    <t>持有</t>
+    <t>仓位eth</t>
   </si>
   <si>
-    <t>任意时刻</t>
+    <t>义务</t>
   </si>
   <si>
-    <t>仓位eth</t>
+    <t>归还200usd</t>
+  </si>
+  <si>
+    <t>归还2个eth</t>
+  </si>
+  <si>
+    <t>权利</t>
+  </si>
+  <si>
+    <t>持有</t>
   </si>
   <si>
     <t>eth 2个</t>
@@ -81,46 +78,419 @@
     <t>200 usd</t>
   </si>
   <si>
-    <t>义务</t>
+    <t>任意时刻</t>
   </si>
   <si>
-    <t>归还2个eth</t>
-  </si>
-  <si>
-    <t>归还200usd</t>
+    <t>卖出2个eth</t>
   </si>
   <si>
     <t>用200usd买入n个eth</t>
   </si>
   <si>
-    <t>卖出2个eth</t>
+    <t>正常平仓价</t>
   </si>
   <si>
-    <t>权利</t>
+    <t>卖出2个eth 得到220刀</t>
+  </si>
+  <si>
+    <t>买入2个eth</t>
+  </si>
+  <si>
+    <t>执行义务</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>个数</t>
+  </si>
+  <si>
+    <t>当前价</t>
+  </si>
+  <si>
+    <t>空军利润</t>
+  </si>
+  <si>
+    <t>空军保证金</t>
+  </si>
+  <si>
+    <t>实际爆仓价</t>
+  </si>
+  <si>
+    <t>穿仓价</t>
+  </si>
+  <si>
+    <t>多军利润</t>
+  </si>
+  <si>
+    <t>多军保证金</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,20 +498,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +809,4596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空军利润</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空军保证金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实际爆仓价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>穿仓价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$14:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="919729434"/>
+        <c:axId val="145146444"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="919729434"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145146444"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145146444"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919729434"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0291470434327577"/>
+          <c:y val="0.0642158516020236"/>
+          <c:w val="0.942072213500785"/>
+          <c:h val="0.933760539629005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空军保证金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$20:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$20:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="321347702"/>
+        <c:axId val="913297572"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="321347702"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="913297572"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="913297572"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321347702"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空军利润</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>空军保证金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$14:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实际爆仓价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$14:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>穿仓价</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$14:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="919729434"/>
+        <c:axId val="145146444"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="919729434"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145146444"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="145146444"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919729434"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7256780" y="327025"/>
+        <a:ext cx="10909935" cy="9219565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5582920" y="9498965"/>
+        <a:ext cx="9747885" cy="9832340"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426085</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7421245" y="2234565"/>
+        <a:ext cx="7105015" cy="5459730"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -194,7 +5444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -229,7 +5479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -403,60 +5653,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A5:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.16176470588235" customWidth="1"/>
+    <col min="3" max="3" width="42.3308823529412" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="9.16176470588235" customWidth="1"/>
+    <col min="6" max="6" width="15.3308823529412" customWidth="1"/>
+    <col min="7" max="7" width="13.8308823529412" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20</v>
       </c>
@@ -475,14 +5720,14 @@
       </c>
       <c r="F6">
         <f>(B6/C6-B6/E6)*A6</f>
-        <v>1.980198019801982E-2</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G6">
         <f>F6*E6</f>
-        <v>20.000000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>20</v>
       </c>
@@ -502,14 +5747,14 @@
       </c>
       <c r="F7">
         <f>(B7/C7-B7/E7)*A7</f>
-        <v>3.9215686274509942E-2</v>
+        <v>0.0392156862745099</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G31" si="0">F7*E7</f>
-        <v>40.000000000000142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40.0000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>20</v>
       </c>
@@ -520,23 +5765,23 @@
         <v>1000</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D23" si="1">B8/C8*A8</f>
+        <f t="shared" ref="D8:D24" si="1">B8/C8*A8</f>
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E23" si="2">E7+10</f>
+        <f t="shared" ref="E8:E24" si="2">E7+10</f>
         <v>1030</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F23" si="3">(B8/C8-B8/E8)*A8</f>
-        <v>5.825242718446616E-2</v>
+        <f t="shared" ref="F8:F24" si="3">(B8/C8-B8/E8)*A8</f>
+        <v>0.0582524271844662</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>60.000000000000142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60.0000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>20</v>
       </c>
@@ -556,14 +5801,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>20</v>
       </c>
@@ -583,14 +5828,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>9.5238095238095455E-2</v>
+        <v>0.0952380952380955</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>100.00000000000023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>20</v>
       </c>
@@ -610,14 +5855,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0.1132075471698113</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>119.99999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20</v>
       </c>
@@ -637,14 +5882,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0.13084112149532728</v>
+        <v>0.130841121495327</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>140.0000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>20</v>
       </c>
@@ -664,14 +5909,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.14814814814814836</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>160.00000000000023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>20</v>
       </c>
@@ -691,14 +5936,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>0.16513761467889909</v>
+        <v>0.165137614678899</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>20</v>
       </c>
@@ -718,14 +5963,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>0.18181818181818188</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>200.00000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>20</v>
       </c>
@@ -745,14 +5990,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0.19819819819819839</v>
+        <v>0.198198198198198</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>220.00000000000023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>20</v>
       </c>
@@ -772,14 +6017,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.21428571428571436</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>240.00000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>20</v>
       </c>
@@ -799,14 +6044,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>0.23008849557522137</v>
+        <v>0.230088495575221</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>260.00000000000017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>20</v>
       </c>
@@ -826,14 +6071,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>0.24561403508771951</v>
+        <v>0.24561403508772</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>280.00000000000023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>20</v>
       </c>
@@ -853,14 +6098,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>0.26086956521739146</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>300.00000000000017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -880,14 +6125,14 @@
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>0.27586206896551724</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -907,14 +6152,14 @@
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>0.29059829059829068</v>
+        <v>0.290598290598291</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>340.00000000000011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
@@ -934,14 +6179,14 @@
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>0.30508474576271205</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>360.00000000000023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20</v>
       </c>
@@ -952,23 +6197,23 @@
         <v>1000</v>
       </c>
       <c r="D24">
-        <f>B24/C24*A24</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E24">
-        <f>E23+10</f>
+        <f t="shared" si="2"/>
         <v>1190</v>
       </c>
       <c r="F24">
-        <f>(B24/C24-B24/E24)*A24</f>
-        <v>0.31932773109243695</v>
+        <f t="shared" si="3"/>
+        <v>0.319327731092437</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>379.99999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>20</v>
       </c>
@@ -988,14 +6233,14 @@
       </c>
       <c r="F25">
         <f t="shared" ref="F25:F31" si="6">(B25/C25-B25/E25)*A25</f>
-        <v>0.33333333333333354</v>
+        <v>0.333333333333334</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>400.00000000000023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1015,14 +6260,14 @@
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
-        <v>0.34710743801652899</v>
+        <v>0.347107438016529</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>420.00000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1042,14 +6287,14 @@
       </c>
       <c r="F27">
         <f t="shared" si="6"/>
-        <v>0.36065573770491827</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>440.00000000000028</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1069,14 +6314,14 @@
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
-        <v>0.37398373983739852</v>
+        <v>0.373983739837399</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>460.00000000000017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>20</v>
       </c>
@@ -1096,14 +6341,14 @@
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
-        <v>0.38709677419354854</v>
+        <v>0.387096774193549</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>480.00000000000017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1123,14 +6368,14 @@
       </c>
       <c r="F30">
         <f t="shared" si="6"/>
-        <v>0.40000000000000008</v>
+        <v>0.4</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>500.00000000000011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -1149,121 +6394,1965 @@
       </c>
       <c r="F31">
         <f t="shared" si="6"/>
-        <v>0.95238095238095111</v>
+        <v>0.952380952380951</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>9999.9999999999873</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+        <v>9999.99999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
       <c r="F34">
         <f>G31/E31</f>
-        <v>0.95238095238095122</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+        <v>0.952380952380951</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.94117647058824" customWidth="1"/>
+    <col min="2" max="2" width="10.2941176470588" customWidth="1"/>
+    <col min="3" max="4" width="8.47058823529412" customWidth="1"/>
+    <col min="5" max="5" width="18.0735294117647" customWidth="1"/>
+    <col min="6" max="6" width="10.2941176470588" customWidth="1"/>
+    <col min="7" max="7" width="18.7058823529412" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="1" t="s">
+    <row r="2" spans="5:7">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="0">C15-5</f>
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D19" si="1">B14*A14-A14*C14</f>
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>-100</v>
+      </c>
+      <c r="F14">
+        <f>E14+20</f>
+        <v>-80</v>
+      </c>
+      <c r="G14">
+        <f>E14-20</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A41" si="2">A14</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:B41" si="3">B14</f>
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E41" si="4">E14</f>
+        <v>-100</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F41" si="5">F14</f>
+        <v>-80</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G41" si="6">G14</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C26" si="7">C21-5</f>
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D27" si="8">B20*A20-A20*C20</f>
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <f>C28-5</f>
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <f>B28*A28-A28*C28</f>
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31">
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D44" si="9">B29*A29-A29*C29</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <f>C29+5</f>
+        <v>105</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C31">
-        <v>1000</v>
-      </c>
+        <f t="shared" ref="C31:C44" si="10">C30+5</f>
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>-40</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>-50</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>-60</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>-70</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>-80</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="9"/>
+        <v>-90</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>-100</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <f>C39+5</f>
+        <v>155</v>
+      </c>
+      <c r="D40">
+        <f>B40*A40-A40*C40</f>
+        <v>-110</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f>C40+5</f>
+        <v>160</v>
+      </c>
+      <c r="D41">
+        <f>B41*A41-A41*C41</f>
+        <v>-120</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.94117647058824" customWidth="1"/>
+    <col min="2" max="2" width="10.2941176470588" customWidth="1"/>
+    <col min="3" max="4" width="8.47058823529412" customWidth="1"/>
+    <col min="5" max="5" width="19.8235294117647" customWidth="1"/>
+    <col min="6" max="6" width="10.2941176470588" customWidth="1"/>
+    <col min="7" max="7" width="18.7058823529412" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="1" spans="5:7">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="3:7">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:7">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="3:7">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="5:7">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:7">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C27" si="0">C15-5</f>
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D44" si="1">B14*A14-A14*C14</f>
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E44" si="2">C14*A14-B14*A14</f>
+        <v>-150</v>
+      </c>
+      <c r="F14">
+        <v>-100</v>
+      </c>
+      <c r="G14">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>-140</v>
+      </c>
+      <c r="F15">
+        <v>-100</v>
+      </c>
+      <c r="G15">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:7">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>-130</v>
+      </c>
+      <c r="F16">
+        <v>-100</v>
+      </c>
+      <c r="G16">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>-120</v>
+      </c>
+      <c r="F17">
+        <v>-100</v>
+      </c>
+      <c r="G17">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>-110</v>
+      </c>
+      <c r="F18">
+        <v>-100</v>
+      </c>
+      <c r="G18">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="F19">
+        <v>-100</v>
+      </c>
+      <c r="G19">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-90</v>
+      </c>
+      <c r="F20">
+        <v>-100</v>
+      </c>
+      <c r="G20">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-80</v>
+      </c>
+      <c r="F21">
+        <v>-100</v>
+      </c>
+      <c r="G21">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-70</v>
+      </c>
+      <c r="F22">
+        <v>-100</v>
+      </c>
+      <c r="G22">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-60</v>
+      </c>
+      <c r="F23">
+        <v>-100</v>
+      </c>
+      <c r="G23">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="F24">
+        <v>-100</v>
+      </c>
+      <c r="G24">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="F25">
+        <v>-100</v>
+      </c>
+      <c r="G25">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:7">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="F26">
+        <v>-100</v>
+      </c>
+      <c r="G26">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="F27">
+        <v>-100</v>
+      </c>
+      <c r="G27">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:7">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="F28">
+        <v>-100</v>
+      </c>
+      <c r="G28">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:7">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>-100</v>
+      </c>
+      <c r="G29">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C44" si="3">C29+5</f>
+        <v>105</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>-100</v>
+      </c>
+      <c r="G30">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:7">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>-100</v>
+      </c>
+      <c r="G31">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:7">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>-100</v>
+      </c>
+      <c r="G32">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:7">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>-100</v>
+      </c>
+      <c r="G33">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:7">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>-100</v>
+      </c>
+      <c r="G34">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:7">
+      <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>-100</v>
+      </c>
+      <c r="G35">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:7">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>-100</v>
+      </c>
+      <c r="G36">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:7">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-80</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F37">
+        <v>-100</v>
+      </c>
+      <c r="G37">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:7">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>-100</v>
+      </c>
+      <c r="G38">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>-100</v>
+      </c>
+      <c r="G39">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:7">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-110</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>-100</v>
+      </c>
+      <c r="G40">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:7">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-120</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>-100</v>
+      </c>
+      <c r="G41">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:7">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-130</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="F42">
+        <v>-100</v>
+      </c>
+      <c r="G42">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:7">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-140</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="F43">
+        <v>-100</v>
+      </c>
+      <c r="G43">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:7">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F44">
+        <v>-100</v>
+      </c>
+      <c r="G44">
+        <v>-150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ppt/futures.xlsx
+++ b/ppt/futures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32040" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="32020" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>number</t>
   </si>
@@ -45,13 +45,37 @@
     <t>任意时间可以用卖出2个btc的usd，去平仓</t>
   </si>
   <si>
+    <t>Bob个数</t>
+  </si>
+  <si>
+    <t>Alice个数</t>
+  </si>
+  <si>
+    <t>开仓价</t>
+  </si>
+  <si>
+    <t>当前价</t>
+  </si>
+  <si>
+    <t>Alice利润</t>
+  </si>
+  <si>
+    <t>保证金</t>
+  </si>
+  <si>
+    <t>实际爆仓价</t>
+  </si>
+  <si>
+    <t>穿仓价</t>
+  </si>
+  <si>
+    <t>Bob利润</t>
+  </si>
+  <si>
     <t>看多</t>
   </si>
   <si>
     <t>看空</t>
-  </si>
-  <si>
-    <t>开仓价</t>
   </si>
   <si>
     <t>仓位eth</t>
@@ -105,22 +129,13 @@
     <t>个数</t>
   </si>
   <si>
-    <t>当前价</t>
-  </si>
-  <si>
     <t>空军利润</t>
   </si>
   <si>
-    <t>空军保证金</t>
+    <t>多军利润</t>
   </si>
   <si>
-    <t>实际爆仓价</t>
-  </si>
-  <si>
-    <t>穿仓价</t>
-  </si>
-  <si>
-    <t>多军利润</t>
+    <t>空军保证金</t>
   </si>
   <si>
     <t>多军保证金</t>
@@ -131,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -152,16 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,22 +184,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +250,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,55 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,25 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,31 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,55 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +458,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,21 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,17 +538,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +586,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -587,160 +611,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,7 +872,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0478525473830638"/>
+          <c:y val="0.0547322801621697"/>
+          <c:w val="0.94866979655712"/>
+          <c:h val="0.733398574024885"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -866,11 +891,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$13</c:f>
+              <c:f>Sheet2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>空军利润</c:v>
+                  <c:v>Alice利润</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -904,7 +929,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -997,93 +1022,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$14:$D$44</c:f>
+              <c:f>Sheet2!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-20</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-30</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-40</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-50</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-60</c:v>
+                  <c:v>-150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-70</c:v>
+                  <c:v>-175</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-80</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-90</c:v>
+                  <c:v>-225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-100</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-110</c:v>
+                  <c:v>-275</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-120</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,11 +1120,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$13</c:f>
+              <c:f>Sheet2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>空军保证金</c:v>
+                  <c:v>保证金</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1133,7 +1158,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1226,7 +1251,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$14:$E$44</c:f>
+              <c:f>Sheet2!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1318,7 +1343,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$13</c:f>
+              <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,7 +1381,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1449,7 +1474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$14:$F$44</c:f>
+              <c:f>Sheet2!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1535,7 +1560,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$13</c:f>
+              <c:f>Sheet2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1573,7 +1598,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1666,7 +1691,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$14:$G$44</c:f>
+              <c:f>Sheet2!$H$3:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1753,6 +1778,223 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bob利润</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,11 +2362,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$13</c:f>
+              <c:f>Sheet2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>空军保证金</c:v>
+                  <c:v>保证金</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2158,7 +2400,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$20:$C$43</c:f>
+              <c:f>Sheet2!$D$9:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2233,7 +2475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$20:$E$43</c:f>
+              <c:f>Sheet2!$F$9:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2532,11 +2774,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$13</c:f>
+              <c:f>Sheet2!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>空军利润</c:v>
+                  <c:v>Alice利润</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2570,7 +2812,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2663,93 +2905,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$14:$D$44</c:f>
+              <c:f>Sheet2!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-20</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-30</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-40</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-50</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-60</c:v>
+                  <c:v>-150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-70</c:v>
+                  <c:v>-175</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-80</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-90</c:v>
+                  <c:v>-225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-100</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-110</c:v>
+                  <c:v>-275</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-120</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,11 +3003,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$13</c:f>
+              <c:f>Sheet2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>空军保证金</c:v>
+                  <c:v>保证金</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2799,7 +3041,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2892,7 +3134,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$14:$E$44</c:f>
+              <c:f>Sheet2!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2984,7 +3226,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$13</c:f>
+              <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3024,7 +3266,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3117,7 +3359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$F$14:$F$44</c:f>
+              <c:f>Sheet2!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3203,7 +3445,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$13</c:f>
+              <c:f>Sheet2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3241,7 +3483,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$14:$C$44</c:f>
+              <c:f>Sheet2!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3334,7 +3576,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$14:$G$44</c:f>
+              <c:f>Sheet2!$H$3:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5305,16 +5547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5322,8 +5564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7256780" y="327025"/>
-        <a:ext cx="10909935" cy="9219565"/>
+        <a:off x="6482080" y="71755"/>
+        <a:ext cx="12553950" cy="9218930"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6421,963 +6663,1138 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
   <cols>
-    <col min="1" max="1" width="4.94117647058824" customWidth="1"/>
-    <col min="2" max="2" width="10.2941176470588" customWidth="1"/>
-    <col min="3" max="4" width="8.47058823529412" customWidth="1"/>
-    <col min="5" max="5" width="18.0735294117647" customWidth="1"/>
-    <col min="6" max="6" width="10.2941176470588" customWidth="1"/>
-    <col min="7" max="7" width="18.7058823529412" customWidth="1"/>
+    <col min="1" max="1" width="8.73529411764706" customWidth="1"/>
+    <col min="2" max="2" width="8.88235294117647" customWidth="1"/>
+    <col min="3" max="4" width="6.70588235294118" customWidth="1"/>
+    <col min="5" max="5" width="9.47058823529412" customWidth="1"/>
+    <col min="6" max="6" width="6.70588235294118" customWidth="1"/>
+    <col min="7" max="7" width="10.2941176470588" customWidth="1"/>
+    <col min="8" max="8" width="6.70588235294118" customWidth="1"/>
+    <col min="9" max="9" width="8.23529411764706" customWidth="1"/>
+    <col min="12" max="12" width="4.94117647058824" customWidth="1"/>
+    <col min="13" max="13" width="8.47058823529412" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="17" max="17" width="18.7058823529412" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:7">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">D4-5</f>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <f t="shared" ref="E3:E8" si="1">C3*B3-B3*D3</f>
+        <v>375</v>
+      </c>
+      <c r="F3">
+        <v>-100</v>
       </c>
       <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C19" si="0">C15-5</f>
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D19" si="1">B14*A14-A14*C14</f>
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <v>-100</v>
-      </c>
-      <c r="F14">
-        <f>E14+20</f>
+        <f>F3+20</f>
         <v>-80</v>
       </c>
-      <c r="G14">
-        <f>E14-20</f>
+      <c r="H3">
+        <f>F3-20</f>
         <v>-120</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <f t="shared" ref="A15:A41" si="2">A14</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ref="B15:B41" si="3">B14</f>
-        <v>100</v>
-      </c>
-      <c r="C15">
+      <c r="I3">
+        <f>A3*C3-A3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A30" si="2">A3</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B30" si="3">B3</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C30" si="4">C3</f>
+        <v>100</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F30" si="5">F3</f>
+        <v>-100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G30" si="6">G3</f>
+        <v>-80</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H30" si="7">H3</f>
+        <v>-120</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I30" si="8">A4*C4-A4*D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D16" si="9">D10-5</f>
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E17" si="10">C9*B9-B9*D9</f>
+        <v>225</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>-120</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="9"/>
+        <v>85</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E41" si="4">E14</f>
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
         <v>-100</v>
       </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F41" si="5">F14</f>
+      <c r="G15">
+        <f t="shared" si="6"/>
         <v>-80</v>
       </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G41" si="6">G14</f>
+      <c r="H15">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="9"/>
+        <v>90</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="10"/>
+        <v>25</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" ref="E18:E33" si="11">C18*B18-B18*D18</f>
+        <v>0</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>D18+5</f>
+        <v>105</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-25</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:C26" si="7">C21-5</f>
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D27" si="8">B20*A20-A20*C20</f>
-        <v>90</v>
+        <f t="shared" ref="D20:D33" si="12">D19+5</f>
+        <v>110</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-50</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D21">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="12"/>
+        <v>115</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-75</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G21">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="7"/>
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D22">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>-100</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D23">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <f t="shared" si="12"/>
+        <v>125</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-125</v>
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G23">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="12"/>
+        <v>130</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-150</v>
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G24">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f t="shared" si="12"/>
+        <v>135</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-175</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G25">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="7"/>
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>140</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-200</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>-80</v>
+        <v>-100</v>
       </c>
       <c r="G26">
         <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <f>C28-5</f>
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>145</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-225</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D28">
-        <f>B28*A28-A28*C28</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>150</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>-100</v>
+        <f t="shared" si="11"/>
+        <v>-250</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D44" si="9">B29*A29-A29*C29</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>155</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
+        <v>-275</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <f>C29+5</f>
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
-        <v>-10</v>
+        <f t="shared" si="12"/>
+        <v>160</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
+        <v>-300</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C44" si="10">C30+5</f>
-        <v>110</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="9"/>
-        <v>-20</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="10"/>
-        <v>115</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="9"/>
-        <v>-30</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="9"/>
-        <v>-40</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="9"/>
-        <v>-50</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="10"/>
-        <v>130</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="9"/>
-        <v>-60</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>-70</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="9"/>
-        <v>-80</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="5"/>
-        <v>-80</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="9"/>
-        <v>-90</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="9"/>
-        <v>-100</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <f>C39+5</f>
-        <v>155</v>
-      </c>
-      <c r="D40">
-        <f>B40*A40-A40*C40</f>
-        <v>-110</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <f>C40+5</f>
-        <v>160</v>
-      </c>
-      <c r="D41">
-        <f>B41*A41-A41*C41</f>
-        <v>-120</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="Q14:Q15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -7406,141 +7823,125 @@
   <sheetData>
     <row r="2" customFormat="1" spans="5:7">
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
+        <v>18</v>
+      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="3:7">
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3"/>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3"/>
       <c r="G3">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="3:7">
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4"/>
+        <v>20</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4"/>
       <c r="G4">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="3:7">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5"/>
+        <v>21</v>
+      </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5"/>
+        <v>22</v>
+      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6"/>
+        <v>25</v>
+      </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6"/>
+        <v>26</v>
+      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7"/>
+        <v>28</v>
+      </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7"/>
+        <v>29</v>
+      </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>110</v>
       </c>
-      <c r="D9"/>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9"/>
+        <v>32</v>
+      </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
       <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10"/>
+        <v>34</v>
+      </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="3:7">
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11"/>
+        <v>35</v>
+      </c>
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11"/>
       <c r="G11">
         <v>-20</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">

--- a/ppt/futures.xlsx
+++ b/ppt/futures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32020" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="16760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,9 @@
     <t>任意时间可以用卖出2个btc的usd，去平仓</t>
   </si>
   <si>
+    <t>Bob利润</t>
+  </si>
+  <si>
     <t>Bob个数</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>穿仓价</t>
-  </si>
-  <si>
-    <t>Bob利润</t>
   </si>
   <si>
     <t>看多</t>
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -160,45 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,23 +171,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,23 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -266,18 +199,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,7 +223,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +282,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,7 +320,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +374,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,55 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,97 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,30 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,8 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +543,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,151 +602,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,88 +1027,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>375</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>125</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-25</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-100</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>-125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-150</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-175</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-225</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-250</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>-275</c:v>
+                  <c:v>-110</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-300</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,88 +2910,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>375</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>325</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>225</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>125</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-25</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>-75</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-100</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>-125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-150</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-175</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-200</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-225</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-250</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>-275</c:v>
+                  <c:v>-110</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-300</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5548,13 +5548,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226060</xdr:colOff>
+      <xdr:colOff>225425</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
@@ -5564,8 +5564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6482080" y="71755"/>
-        <a:ext cx="12553950" cy="9218930"/>
+        <a:off x="6481445" y="71755"/>
+        <a:ext cx="16149320" cy="9218930"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6663,10 +6663,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:V31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
@@ -6685,33 +6685,38 @@
     <col min="17" max="17" width="18.7058823529412" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="9:9">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6719,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -6730,7 +6735,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" si="1">C3*B3-B3*D3</f>
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>-100</v>
@@ -6755,7 +6760,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B30" si="3">B3</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C30" si="4">C3</f>
@@ -6767,7 +6772,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F30" si="5">F3</f>
@@ -6793,7 +6798,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="4"/>
@@ -6805,7 +6810,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="F5">
         <f t="shared" si="5"/>
@@ -6831,7 +6836,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="4"/>
@@ -6843,7 +6848,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
@@ -6869,7 +6874,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="4"/>
@@ -6881,7 +6886,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
@@ -6907,7 +6912,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="4"/>
@@ -6919,7 +6924,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
@@ -6945,7 +6950,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="4"/>
@@ -6957,7 +6962,7 @@
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E17" si="10">C9*B9-B9*D9</f>
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <f t="shared" si="5"/>
@@ -6983,7 +6988,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="4"/>
@@ -6995,7 +7000,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <f t="shared" si="5"/>
@@ -7027,7 +7032,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="4"/>
@@ -7039,7 +7044,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="10"/>
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
@@ -7058,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T11">
         <v>100</v>
@@ -7074,7 +7079,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="4"/>
@@ -7086,7 +7091,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="10"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
@@ -7121,7 +7126,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="4"/>
@@ -7133,7 +7138,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="10"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
@@ -7168,7 +7173,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="4"/>
@@ -7180,7 +7185,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
@@ -7218,7 +7223,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -7230,7 +7235,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
@@ -7266,7 +7271,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -7278,7 +7283,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
@@ -7304,7 +7309,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -7315,7 +7320,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -7378,7 +7383,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -7390,7 +7395,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="11"/>
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
@@ -7416,7 +7421,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -7428,7 +7433,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="11"/>
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
@@ -7454,7 +7459,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -7466,7 +7471,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="11"/>
-        <v>-75</v>
+        <v>-30</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
@@ -7492,7 +7497,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -7504,7 +7509,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>-40</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
@@ -7530,7 +7535,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -7542,7 +7547,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="11"/>
-        <v>-125</v>
+        <v>-50</v>
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
@@ -7568,7 +7573,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
@@ -7580,7 +7585,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="11"/>
-        <v>-150</v>
+        <v>-60</v>
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
@@ -7606,7 +7611,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
@@ -7618,7 +7623,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="11"/>
-        <v>-175</v>
+        <v>-70</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
@@ -7644,7 +7649,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
@@ -7656,7 +7661,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="11"/>
-        <v>-200</v>
+        <v>-80</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
@@ -7682,7 +7687,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -7694,7 +7699,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="11"/>
-        <v>-225</v>
+        <v>-90</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
@@ -7712,7 +7717,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="4"/>
@@ -7724,7 +7729,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="11"/>
-        <v>-250</v>
+        <v>-100</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
@@ -7742,7 +7747,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -7754,7 +7759,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="11"/>
-        <v>-275</v>
+        <v>-110</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
@@ -7768,7 +7773,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
@@ -7780,7 +7785,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>-120</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
@@ -7831,7 +7836,7 @@
     </row>
     <row r="3" customFormat="1" spans="3:7">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -7926,10 +7931,10 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
